--- a/biology/Zoologie/Irenidae_(Sibley)/Irenidae_(Sibley).xlsx
+++ b/biology/Zoologie/Irenidae_(Sibley)/Irenidae_(Sibley).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, la famille des irénidés (ou Irenidae) comprend seulement les 2 espèces d'oiseaux bleus des fées.
 Dans la classification de Sibley et Monroe (1993), basée sur l'hybridation de l'ADN, cette famille comprend aussi les verdins, formant auparavant la famille des chloropséidés.
@@ -512,7 +524,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chloropsis Jardine &amp; Selby, 1827
 Irena Horsfield, 1821</t>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>N.B. : l'ordre de cette liste n'est pas aléatoire, il correspond à des liens de parenté entre les différentes espèces (phylogénie). Elle a été établie à partir des listes d'Alan P. Peterson et de la Commission internationale des noms français des oiseaux (Cinfo).
 Verdin à ailes jaunes — Chloropsis flavipennis (Tweeddale, 1878) — Philippine Leafbird
